--- a/StructureDefinition-work-address.xlsx
+++ b/StructureDefinition-work-address.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="171">
   <si>
     <t>Path</t>
   </si>
@@ -235,27 +235,30 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>The county code for the address</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>regionDescription</t>
+    <t>providerRegion</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/provider-region}
 </t>
   </si>
   <si>
+    <t>Customer-specific description of the region for the address</t>
+  </si>
+  <si>
     <t>regionCode</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/region-code}
 </t>
+  </si>
+  <si>
+    <t>Customer-specific code for the geographic region of the address</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -702,7 +705,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.3203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1225,7 +1228,7 @@
         <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1294,7 +1297,7 @@
         <v>40</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>40</v>
@@ -1308,7 +1311,7 @@
         <v>57</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>40</v>
@@ -1330,13 +1333,13 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1405,7 +1408,7 @@
         <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>40</v>
@@ -1444,10 +1447,10 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1516,7 +1519,7 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1544,25 +1547,25 @@
         <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s" s="2">
         <v>40</v>
@@ -1572,10 +1575,10 @@
         <v>40</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T8" t="s" s="2">
         <v>40</v>
@@ -1587,13 +1590,13 @@
         <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z8" t="s" s="2">
         <v>40</v>
@@ -1611,7 +1614,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1626,13 +1629,13 @@
         <v>47</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>40</v>
@@ -1640,7 +1643,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1660,19 +1663,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1683,10 +1686,10 @@
         <v>40</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T9" t="s" s="2">
         <v>40</v>
@@ -1698,13 +1701,13 @@
         <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>40</v>
@@ -1722,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1737,21 +1740,21 @@
         <v>47</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1771,22 +1774,22 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -1799,7 +1802,7 @@
         <v>40</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>40</v>
@@ -1835,7 +1838,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1850,21 +1853,21 @@
         <v>47</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1884,16 +1887,16 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1908,7 +1911,7 @@
         <v>40</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>40</v>
@@ -1944,7 +1947,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -1959,25 +1962,25 @@
         <v>47</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -1993,16 +1996,16 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2017,7 +2020,7 @@
         <v>40</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>40</v>
@@ -2053,7 +2056,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2068,25 +2071,25 @@
         <v>47</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2102,19 +2105,19 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2128,7 +2131,7 @@
         <v>40</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>40</v>
@@ -2164,7 +2167,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2179,10 +2182,10 @@
         <v>47</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2193,11 +2196,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2213,16 +2216,16 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2273,7 +2276,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2288,25 +2291,25 @@
         <v>47</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2322,16 +2325,16 @@
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2346,7 +2349,7 @@
         <v>40</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>40</v>
@@ -2382,7 +2385,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2397,21 +2400,21 @@
         <v>47</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2431,19 +2434,19 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2493,7 +2496,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2508,21 +2511,21 @@
         <v>47</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2542,20 +2545,20 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2568,7 +2571,7 @@
         <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>40</v>
@@ -2604,7 +2607,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2619,13 +2622,13 @@
         <v>47</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>

--- a/StructureDefinition-work-address.xlsx
+++ b/StructureDefinition-work-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-work-address.xlsx
+++ b/StructureDefinition-work-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-work-address.xlsx
+++ b/StructureDefinition-work-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-work-address.xlsx
+++ b/StructureDefinition-work-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
